--- a/biology/Zoologie/Erythrolamprus_pygmaeus/Erythrolamprus_pygmaeus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_pygmaeus/Erythrolamprus_pygmaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus pygmaeus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus pygmaeus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud de la Colombie ;
 dans l'est de l'Équateur ;
 dans le nord du Pérou ;
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
